--- a/MyCProgram/近期工作/2018NAB/NAB2018_FL_20170209 v1.xlsx
+++ b/MyCProgram/近期工作/2018NAB/NAB2018_FL_20170209 v1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="22260" windowHeight="12615"/>
@@ -263,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +460,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -486,18 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,7 +771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -782,11 +782,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="93.125" style="4" customWidth="1"/>
@@ -797,7 +797,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -814,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -855,7 +855,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1">
+    <row r="5" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -870,7 +870,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>42</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="D7" s="17"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
+    <row r="9" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -926,7 +926,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1">
+    <row r="10" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="30" hidden="1" customHeight="1">
+    <row r="12" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="D12" s="17"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
@@ -982,7 +982,7 @@
       </c>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" ht="30" hidden="1" customHeight="1">
+    <row r="14" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
@@ -995,49 +995,49 @@
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="22" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
       <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A18" s="30"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
@@ -1052,40 +1052,40 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="30"/>
+    <row r="21" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
       <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="30"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
       <c r="B22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
@@ -1100,8 +1100,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -1111,12 +1111,12 @@
         <v>49</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
       <c r="B25" s="9" t="s">
         <v>23</v>
       </c>
@@ -1124,10 +1124,10 @@
         <v>49</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="30"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
@@ -1135,10 +1135,10 @@
         <v>49</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="30"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
       <c r="B27" s="9" t="s">
         <v>20</v>
       </c>
@@ -1146,10 +1146,10 @@
         <v>49</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="30"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
       <c r="B28" s="9" t="s">
         <v>21</v>
       </c>
@@ -1157,10 +1157,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="30"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
       <c r="B29" s="9" t="s">
         <v>22</v>
       </c>
@@ -1168,10 +1168,10 @@
         <v>49</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="30"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1183,8 +1183,8 @@
       </c>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" ht="47.25" hidden="1" customHeight="1">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:5" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -1196,8 +1196,8 @@
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" ht="47.25" hidden="1" customHeight="1">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
       <c r="B32" s="9" t="s">
         <v>38</v>
       </c>
@@ -1207,8 +1207,8 @@
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="1:5" ht="30" hidden="1" customHeight="1">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
       <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
@@ -1218,8 +1218,8 @@
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="1:5" ht="30" hidden="1" customHeight="1">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
       <c r="B34" s="9" t="s">
         <v>40</v>
       </c>
@@ -1229,8 +1229,8 @@
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" ht="30" hidden="1" customHeight="1">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
       <c r="B35" s="9" t="s">
         <v>24</v>
       </c>
@@ -1240,8 +1240,8 @@
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5" ht="30" hidden="1" customHeight="1">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
       <c r="B36" s="9" t="s">
         <v>25</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1">
+    <row r="37" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>46</v>
       </c>
@@ -1269,12 +1269,8 @@
   </sheetData>
   <autoFilter ref="C1:C37">
     <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="陈利涛"/>
-        <filter val="聂家刚"/>
+      <filters>
         <filter val="王富贵"/>
-        <filter val="肖杨"/>
-        <filter val="张兴亮"/>
       </filters>
     </filterColumn>
   </autoFilter>
